--- a/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
+++ b/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\PDiCECpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\endo-learn\PDiCECpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04860A67-1BF4-48A9-8C23-6DA525D1CA70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
+    <workbookView xWindow="49275" yWindow="750" windowWidth="10980" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="PDiCECpDoC" sheetId="2" r:id="rId2"/>
+    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
+    <sheet name="PDiCECpDoC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PDiCECpDoC Perc Decline in CCS Eqpt Cost per Doubling of Capacity</t>
   </si>
@@ -62,13 +74,40 @@
   </si>
   <si>
     <t>Perc Decline per Doubling (dimensionless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A more recent study from DNVGL </t>
+  </si>
+  <si>
+    <t>https://www.dnvgl.com/feature/carbon-capture-storage-ccs.html</t>
+  </si>
+  <si>
+    <t>assumes a learning rate of 15-20% - closer to what we see in the renewables and storage industries.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This suggests that the learning rate may be higher than the 2013 report used by EI. </t>
+  </si>
+  <si>
+    <t>So, we can take an average of some of these values just to be conservative</t>
+  </si>
+  <si>
+    <t>average learning rate</t>
+  </si>
+  <si>
+    <t>2018 DNVGL</t>
+  </si>
+  <si>
+    <t>2013 CRS report</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +123,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,17 +155,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -204,6 +264,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -239,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,10 +508,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -491,14 +587,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F8D254-DF8E-415D-821C-0D2BEE34FB6E}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(0.15, 0.2)</f>
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(B8:B9)</f>
+        <v>0.1525</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7CC3E78C-DCD6-454D-920F-3E3D191D04C3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -516,7 +689,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.13</v>
+        <f>'Texas Notes'!B10</f>
+        <v>0.1525</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
+++ b/InputData/endo-learn/PDiCECpDoC/Perc Decline in CCS Eqpt Cost per Doubling of Capacity.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\endo-learn\PDiCECpDoC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\PDiCECpDoC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04860A67-1BF4-48A9-8C23-6DA525D1CA70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49275" yWindow="750" windowWidth="10980" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22035" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Texas Notes" sheetId="3" r:id="rId2"/>
-    <sheet name="PDiCECpDoC" sheetId="2" r:id="rId3"/>
+    <sheet name="PDiCECpDoC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>PDiCECpDoC Perc Decline in CCS Eqpt Cost per Doubling of Capacity</t>
   </si>
@@ -74,40 +62,13 @@
   </si>
   <si>
     <t>Perc Decline per Doubling (dimensionless)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A more recent study from DNVGL </t>
-  </si>
-  <si>
-    <t>https://www.dnvgl.com/feature/carbon-capture-storage-ccs.html</t>
-  </si>
-  <si>
-    <t>assumes a learning rate of 15-20% - closer to what we see in the renewables and storage industries.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This suggests that the learning rate may be higher than the 2013 report used by EI. </t>
-  </si>
-  <si>
-    <t>So, we can take an average of some of these values just to be conservative</t>
-  </si>
-  <si>
-    <t>average learning rate</t>
-  </si>
-  <si>
-    <t>2018 DNVGL</t>
-  </si>
-  <si>
-    <t>2013 CRS report</t>
-  </si>
-  <si>
-    <t>average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,27 +84,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,24 +102,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -264,23 +204,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -316,23 +239,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,12 +414,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -587,91 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F8D254-DF8E-415D-821C-0D2BEE34FB6E}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <f>AVERAGE(0.15, 0.2)</f>
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5">
-        <f>AVERAGE(B8:B9)</f>
-        <v>0.1525</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7CC3E78C-DCD6-454D-920F-3E3D191D04C3}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -689,8 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>'Texas Notes'!B10</f>
-        <v>0.1525</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
